--- a/src/assets/更新说明.xlsx
+++ b/src/assets/更新说明.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoxinlei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoxinlei/WebstormProjects/Smart-Auto-Business/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="2840" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="5740" yWindow="2820" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>版本号</t>
     <rPh sb="0" eb="1">
@@ -539,12 +540,126 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>版本号</t>
+    <rPh sb="0" eb="1">
+      <t>ban ben hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <rPh sb="0" eb="1">
+      <t>gegn xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartOne_20190319001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、加入excel导入数据功能</t>
+    <rPh sb="2" eb="3">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao r</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配置说明
+1、添加导入按钮
+{
+      name: "import",
+      icon: "cloud-upload",
+      text: "附件上传",
+      action: "IMPORT_EXCEL",
+      actionType:"importExcel",
+      actionName:"importExcel",
+      type: "importExcel",
+      cancelPermission: true
+}
+2、添加导入功能的配置节点(与uploadDialog在同一级别)
+importExcel: [
+  {
+    keyId: "Id",
+    title: "",
+    name: "importExcel",
+    width: "600",
+    ajaxConfig: {
+        url: "file/upload",
+        importUrl: 'common/excel/import',
+        ajaxType: "post",
+        resourceName: 'ShowCase',
+        batchImportCount: 100
+    }
+  }
+]
+</t>
+    <rPh sb="0" eb="1">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dao ru</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>trian j</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>dao ru</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>gong neng</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>de</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>jie dian</t>
+    </rPh>
+    <rPh sb="252" eb="253">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ji bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -568,6 +683,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -577,9 +700,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -589,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -613,11 +776,57 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -631,18 +840,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -654,13 +851,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="版本号" dataDxfId="4"/>
-    <tableColumn id="2" name="更新日期" dataDxfId="3"/>
-    <tableColumn id="3" name="更新内容" dataDxfId="2"/>
-    <tableColumn id="4" name="备注" dataDxfId="1"/>
+    <tableColumn id="1" name="版本号" dataDxfId="3"/>
+    <tableColumn id="2" name="更新日期" dataDxfId="2"/>
+    <tableColumn id="3" name="更新内容" dataDxfId="1"/>
+    <tableColumn id="4" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -931,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,4 +1214,103 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11">
+        <v>43542</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20">
+        <v>43543</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/assets/更新说明.xlsx
+++ b/src/assets/更新说明.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>版本号</t>
     <rPh sb="0" eb="1">
@@ -651,6 +651,251 @@
     </rPh>
     <rPh sb="268" eb="269">
       <t>ji bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartOne_20190412_F(192.168.1.111)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调整日期的自定义格式,包括日期选择控件、月选择控件</t>
+    <rPh sb="2" eb="3">
+      <t>tiao zheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi ding yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bao kuo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ri qi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xuan ze</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xuan ze</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>kong jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、增加了日志的功能完整性、需要JSON配置的ajaxConfig节点中加入description属性对当前操作进行描述</t>
+    <rPh sb="2" eb="3">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan zheng xing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>jie dian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shu xing</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>cao zuo</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jix ning</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、将日志表变为SysOperationLog,简化日志内容的查询</t>
+    <rPh sb="2" eb="3">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ri zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian wei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jian hua</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ri zhi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>nei rong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、增加了下拉树的打开后选项的高度配置</t>
+    <rPh sb="2" eb="3">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia la shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da kai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xuan x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gao du</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pei zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"style":{"max-height":"300px"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、优化了前置条件的功能,增加了innerValue验证、可以对比内置参数重的值是否匹配</t>
+    <rPh sb="2" eb="3">
+      <t>you hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qian zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tiao jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong neng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>le</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yan zheng</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dui bi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>nei zhi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>de</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>pi pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情参考具体JSON实例</t>
+    <rPh sb="0" eb="1">
+      <t>xiang qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju ti</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,6 +1025,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,24 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,7 +1374,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,91 +1463,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="17">
         <v>43542</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>43543</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16">
+        <v>43567</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
